--- a/src/excel-data/special.xlsx
+++ b/src/excel-data/special.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuxuan-cao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B73D426-3621-414C-91D3-D960C48C2822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D47A4B-DA70-634D-876B-517424324DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="3040" windowWidth="27500" windowHeight="16360" xr2:uid="{AE1F6D79-7BF8-3141-82A4-F48A6B9BD987}"/>
+    <workbookView xWindow="10900" yWindow="3040" windowWidth="27500" windowHeight="16360" xr2:uid="{AE1F6D79-7BF8-3141-82A4-F48A6B9BD987}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
   <si>
     <t>sortOrder</t>
   </si>
@@ -300,13 +300,290 @@
   <si>
     <t>Senmo-Line-Free-Pass</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>aizu-gurutto-card</t>
+  </si>
+  <si>
+    <t>会津环游卡</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>购</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">票; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>购</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>票； 各旅行事物所</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>购</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>票</t>
+    </r>
+    <rPh sb="12" eb="13">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>lü x</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi wu</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>～2026年3月30日</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>福</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>岛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; 会津; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>北</t>
+    </r>
+    <rPh sb="8" eb="9">
+      <t>dong bei</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/images/coverage/aizu-gurutto-card.png</t>
+  </si>
+  <si>
+    <t>不问国籍所有游客皆可购买</t>
+  </si>
+  <si>
+    <t>https://www.aizukanko.com/kk/aizucard/index.htm</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://maas-portal.com/tohoku/tickets/3879</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>坐普通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>电车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>需</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>另外加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>钱</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>kuai chu e</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>che</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia qian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi wai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ling wai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jia q</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -345,13 +622,27 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -371,7 +662,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -380,6 +671,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -715,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD3AD49-5E2D-8B43-89DC-9E00774DC229}">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1118,8 +1412,80 @@
         <v>59</v>
       </c>
     </row>
+    <row r="8" spans="1:28" s="4" customFormat="1">
+      <c r="B8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2720</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1360</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="W8" r:id="rId1" xr:uid="{FB37E620-91DC-E144-85C1-6B1F7629523B}"/>
+    <hyperlink ref="X8" r:id="rId2" xr:uid="{4E5B9664-04A6-1A40-A582-1CD9AC414B7E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/excel-data/special.xlsx
+++ b/src/excel-data/special.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D47A4B-DA70-634D-876B-517424324DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DC9501-C92E-1443-8823-1DBFDD8EDEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10900" yWindow="3040" windowWidth="27500" windowHeight="16360" xr2:uid="{AE1F6D79-7BF8-3141-82A4-F48A6B9BD987}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>sortOrder</t>
   </si>
@@ -578,12 +578,47 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>Seibu-Moomin-Valley</t>
+  </si>
+  <si>
+    <t>秩父姆明谷公园游玩券</t>
+    <rPh sb="0" eb="2">
+      <t>チチブ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>现金购票；车站购票；</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/images/coverage/Seibu-Moomin-Valley.png</t>
+  </si>
+  <si>
+    <t>普通电车</t>
+    <rPh sb="0" eb="4">
+      <t>dian che</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.seiburailway.jp/railway/ticket/specialticket/hannomankitsu_digital/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.emot.jp/service/detail/moominvalley.html</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ムーミンバレーパークおでかけパス（スマートフォン）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -630,6 +665,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黒体-簡 ミディアム"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="黒体-簡 ミディアム"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黒体-簡 ミディアム"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -662,7 +716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -674,6 +728,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1009,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD3AD49-5E2D-8B43-89DC-9E00774DC229}">
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -1020,7 +1079,7 @@
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1">
+    <row r="1" spans="1:30" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1165,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1">
+    <row r="2" spans="1:30" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1174,7 +1233,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1">
+    <row r="3" spans="1:30" s="1" customFormat="1">
       <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
@@ -1242,7 +1301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1">
+    <row r="4" spans="1:30" s="1" customFormat="1">
       <c r="B4" s="1" t="s">
         <v>45</v>
       </c>
@@ -1310,7 +1369,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1">
+    <row r="5" spans="1:30" s="1" customFormat="1">
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
@@ -1378,7 +1437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:30">
       <c r="B6" s="1" t="s">
         <v>61</v>
       </c>
@@ -1395,7 +1454,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:30">
       <c r="B7" s="1" t="s">
         <v>58</v>
       </c>
@@ -1412,7 +1471,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="4" customFormat="1">
+    <row r="8" spans="1:30" s="4" customFormat="1">
       <c r="B8" s="4" t="s">
         <v>62</v>
       </c>
@@ -1478,6 +1537,56 @@
       </c>
       <c r="AB8" s="4" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="7" customFormat="1">
+      <c r="A9" s="7">
+        <v>57</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="9">
+        <v>4100</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2400</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="7">
+        <v>1</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1485,6 +1594,8 @@
   <hyperlinks>
     <hyperlink ref="W8" r:id="rId1" xr:uid="{FB37E620-91DC-E144-85C1-6B1F7629523B}"/>
     <hyperlink ref="X8" r:id="rId2" xr:uid="{4E5B9664-04A6-1A40-A582-1CD9AC414B7E}"/>
+    <hyperlink ref="X9" r:id="rId3" xr:uid="{7AF66FAA-2C7E-B445-A911-A58BE5A93699}"/>
+    <hyperlink ref="W9" r:id="rId4" xr:uid="{11206038-1CD7-F547-AAB5-768FA4F6AEA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
